--- a/现金流量表/688618.xlsx
+++ b/现金流量表/688618.xlsx
@@ -687,7 +687,11 @@
           <t>688618</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>016015</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>10000077735</t>
@@ -698,7 +702,11 @@
           <t>三旺通信</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>通讯行业</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>kcb</t>
@@ -716,14 +724,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -736,53 +744,51 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>20197568.65</v>
+        <v>10470879.33</v>
       </c>
       <c r="P2" t="n">
-        <v>50.996956535</v>
+        <v>42.5208052188</v>
       </c>
       <c r="Q2" t="n">
-        <v>120496614.11</v>
+        <v>68325405.84999999</v>
       </c>
       <c r="R2" t="n">
-        <v>304.2425897325</v>
+        <v>277.4601045511</v>
       </c>
       <c r="S2" t="n">
-        <v>38218120.19</v>
+        <v>27483975.38</v>
       </c>
       <c r="T2" t="n">
-        <v>96.4971501249</v>
+        <v>111.6086554854</v>
       </c>
       <c r="U2" t="n">
-        <v>-20421782.51</v>
+        <v>356396.94</v>
       </c>
       <c r="V2" t="n">
-        <v>-51.5630753917</v>
+        <v>1.4472791051</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>2371916.85</v>
+        <v>1209109.91</v>
       </c>
       <c r="Z2" t="n">
-        <v>5.9888664126</v>
+        <v>4.9100295544</v>
       </c>
       <c r="AA2" t="n">
-        <v>-40000000</v>
+        <v>13695843.72</v>
       </c>
       <c r="AB2" t="n">
-        <v>-100.9962286425</v>
+        <v>55.6169434077</v>
       </c>
       <c r="AC2" t="n">
-        <v>-39605439.27</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>-165.1718067999</v>
-      </c>
+        <v>24625308.19</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>

--- a/现金流量表/688618.xlsx
+++ b/现金流量表/688618.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-11 00:00:00</t>
+          <t>2020-12-25 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">

--- a/现金流量表/688618.xlsx
+++ b/现金流量表/688618.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -744,51 +744,53 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>10470879.33</v>
+        <v>25370613</v>
       </c>
       <c r="P2" t="n">
-        <v>42.5208052188</v>
+        <v>26.7283100845</v>
       </c>
       <c r="Q2" t="n">
-        <v>68325405.84999999</v>
+        <v>136112515.4</v>
       </c>
       <c r="R2" t="n">
-        <v>277.4601045511</v>
+        <v>143.3965161976</v>
       </c>
       <c r="S2" t="n">
-        <v>27483975.38</v>
+        <v>48337151.47</v>
       </c>
       <c r="T2" t="n">
-        <v>111.6086554854</v>
+        <v>50.9238926585</v>
       </c>
       <c r="U2" t="n">
-        <v>356396.94</v>
+        <v>20799587.39</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4472791051</v>
+        <v>21.9126680696</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>1209109.91</v>
+        <v>1549584.56</v>
       </c>
       <c r="Z2" t="n">
-        <v>4.9100295544</v>
+        <v>1.6325098894</v>
       </c>
       <c r="AA2" t="n">
-        <v>13695843.72</v>
+        <v>48655092.42</v>
       </c>
       <c r="AB2" t="n">
-        <v>55.6169434077</v>
+        <v>51.2588480772</v>
       </c>
       <c r="AC2" t="n">
-        <v>24625308.19</v>
-      </c>
-      <c r="AD2" t="inlineStr"/>
+        <v>94920378.13</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>339.6650053113</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>

--- a/现金流量表/688618.xlsx
+++ b/现金流量表/688618.xlsx
@@ -744,53 +744,51 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>25370613</v>
+        <v>27556940.46</v>
       </c>
       <c r="P2" t="n">
-        <v>26.7283100845</v>
+        <v>45.3456806125</v>
       </c>
       <c r="Q2" t="n">
-        <v>136112515.4</v>
+        <v>105540785.91</v>
       </c>
       <c r="R2" t="n">
-        <v>143.3965161976</v>
+        <v>173.6701785314</v>
       </c>
       <c r="S2" t="n">
-        <v>48337151.47</v>
+        <v>26534108.61</v>
       </c>
       <c r="T2" t="n">
-        <v>50.9238926585</v>
+        <v>43.6625835191</v>
       </c>
       <c r="U2" t="n">
-        <v>20799587.39</v>
+        <v>49467506.93</v>
       </c>
       <c r="V2" t="n">
-        <v>21.9126680696</v>
+        <v>81.4001022066</v>
       </c>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>1549584.56</v>
+        <v>2064921.99</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.6325098894</v>
+        <v>3.3978842167</v>
       </c>
       <c r="AA2" t="n">
-        <v>48655092.42</v>
+        <v>-16241667</v>
       </c>
       <c r="AB2" t="n">
-        <v>51.2588480772</v>
+        <v>-26.7260962974</v>
       </c>
       <c r="AC2" t="n">
-        <v>94920378.13</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>339.6650053113</v>
-      </c>
+        <v>60770816.73</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
